--- a/foodplaces.xlsx
+++ b/foodplaces.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wamik\Desktop\orbital\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wamik\Desktop\orbital\exercise_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333FFC7D-819F-4743-9436-7407A9227907}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFD8915-A3EB-4446-A47C-5DEA51E0E03F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{780EBC46-C148-4B2E-9785-8FD98C4AA29C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>Location</t>
   </si>
@@ -54,9 +54,6 @@
     <t>S9</t>
   </si>
   <si>
-    <t>Science</t>
-  </si>
-  <si>
     <t>Starbucks</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Mon-Fri, 7.45am-8.45pm Sat, 8.00am-2.30pm</t>
   </si>
   <si>
-    <t>School of Business/School of computing/Faculty of Arts and Social Sciences</t>
-  </si>
-  <si>
     <t>Salad Express X Pasta Express</t>
   </si>
   <si>
@@ -217,6 +211,102 @@
   </si>
   <si>
     <t>24/7</t>
+  </si>
+  <si>
+    <t>to add</t>
+  </si>
+  <si>
+    <t>University town</t>
+  </si>
+  <si>
+    <t>Ventus</t>
+  </si>
+  <si>
+    <t>Cafe Delight</t>
+  </si>
+  <si>
+    <t>Science/University hall/Medicine</t>
+  </si>
+  <si>
+    <t>Jewel Coffee</t>
+  </si>
+  <si>
+    <t>Mon-Fri, 7.30am-10.00pm Sat/Sun/PH, 8.00am-5.00pm</t>
+  </si>
+  <si>
+    <t>Medicine Block MD11</t>
+  </si>
+  <si>
+    <t>faculty of engneering/YIH/USC</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>Spinelli</t>
+  </si>
+  <si>
+    <t>UHall Tan Chin Tuan Wing 1st Level</t>
+  </si>
+  <si>
+    <t>Mon-Fri, 8.00am-6.30pm</t>
+  </si>
+  <si>
+    <t>6777 5025</t>
+  </si>
+  <si>
+    <t>School of Business/School of computing/Faculty of Arts and Social Sciences/Ventus/Shaw Foundation Alumni House</t>
+  </si>
+  <si>
+    <t>SFAH</t>
+  </si>
+  <si>
+    <t>Reedz Café</t>
+  </si>
+  <si>
+    <t>University Club</t>
+  </si>
+  <si>
+    <t>Mon-Fri, 8.30am-5.30pm Sat/Sun, 8.00am-3.00pm</t>
+  </si>
+  <si>
+    <t>Mon-Fri, 11.30am-2.30pm (Last seating 2pm, Last order 2.10pm)</t>
+  </si>
+  <si>
+    <t>6.30pm-10.00pm (Last seating 9.45pm, Last order 10pm)</t>
+  </si>
+  <si>
+    <t>Lounge Area: 11.30am to 11pm (Last seating 9.45pm, Last order 10pm)</t>
+  </si>
+  <si>
+    <t>6779 8919</t>
+  </si>
+  <si>
+    <t>6774 5898</t>
+  </si>
+  <si>
+    <t>The Coffee Roaster</t>
+  </si>
+  <si>
+    <t>Blk AS8</t>
+  </si>
+  <si>
+    <t>Mon-Fri, 7.30am-7.00pm Sat, 9.00am-5.00pm</t>
+  </si>
+  <si>
+    <t>Maxx Coffee</t>
+  </si>
+  <si>
+    <t>Daily, 8.00am-10.00pm</t>
+  </si>
+  <si>
+    <t>Central Library</t>
+  </si>
+  <si>
+    <t>Museum/University Cultural Centre/Yong Siew Toh Conservatory of Music (YSTCM)/Alice lee plaza</t>
+  </si>
+  <si>
+    <t>Yale-NUS</t>
   </si>
 </sst>
 </file>
@@ -233,24 +323,19 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF3A3A3A"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3A3A3A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -273,70 +358,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,337 +706,465 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E814803-94C4-4C5D-B9B4-8FF2D80531F7}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="33.88671875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="12" t="s">
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="12" t="s">
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="L5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="16" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="L6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="18" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="L7" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="19" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2">
+        <v>73</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2">
+        <v>80</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2">
+        <v>308</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2">
+        <v>100</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1">
+        <v>268</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2">
+        <v>36</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
+      <c r="C22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11">
+      <c r="F22" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="1">
+        <v>70</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="35.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12">
-        <v>308</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="22"/>
-      <c r="C15" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="21">
-        <v>268</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="22"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="22"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B18" s="22"/>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="B19" s="22"/>
-      <c r="C19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19">
-        <v>36</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C21" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C22" s="21"/>
-      <c r="D22" s="5" t="s">
-        <v>60</v>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B13"/>
+  <mergeCells count="15">
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B16:B31"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E5:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/foodplaces.xlsx
+++ b/foodplaces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wamik\Desktop\orbital\exercise_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFD8915-A3EB-4446-A47C-5DEA51E0E03F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFA27C4-4A16-4DB9-AF43-862FD964D770}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{780EBC46-C148-4B2E-9785-8FD98C4AA29C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="173">
   <si>
     <t>Location</t>
   </si>
@@ -213,12 +213,6 @@
     <t>24/7</t>
   </si>
   <si>
-    <t>to add</t>
-  </si>
-  <si>
-    <t>University town</t>
-  </si>
-  <si>
     <t>Ventus</t>
   </si>
   <si>
@@ -237,12 +231,6 @@
     <t>Medicine Block MD11</t>
   </si>
   <si>
-    <t>faculty of engneering/YIH/USC</t>
-  </si>
-  <si>
-    <t>BTC</t>
-  </si>
-  <si>
     <t>Spinelli</t>
   </si>
   <si>
@@ -303,10 +291,265 @@
     <t>Central Library</t>
   </si>
   <si>
-    <t>Museum/University Cultural Centre/Yong Siew Toh Conservatory of Music (YSTCM)/Alice lee plaza</t>
-  </si>
-  <si>
-    <t>Yale-NUS</t>
+    <t>Faculty of Engineering/YIH/USC</t>
+  </si>
+  <si>
+    <t>YIH</t>
+  </si>
+  <si>
+    <t>Central Square</t>
+  </si>
+  <si>
+    <t>Design &amp; Environment Block SDE4</t>
+  </si>
+  <si>
+    <t>Engineering Block E2A</t>
+  </si>
+  <si>
+    <t>Mon-Fri, 9.00am-7.30pm</t>
+  </si>
+  <si>
+    <t>Eureka Taste</t>
+  </si>
+  <si>
+    <t>Medicine Block MD6</t>
+  </si>
+  <si>
+    <t>Mon-Fri: 7.00am-7.00pm</t>
+  </si>
+  <si>
+    <t>Crave</t>
+  </si>
+  <si>
+    <t>Mon-Fri, 9.00am-8.00pm Sat, 9.00am-6.00pm</t>
+  </si>
+  <si>
+    <t>E2 Halal Cafeteria</t>
+  </si>
+  <si>
+    <t>Engineering Block E2</t>
+  </si>
+  <si>
+    <t>Halal Certified</t>
+  </si>
+  <si>
+    <t>Mon-Fri, 7.00am-7.00pm Sat, 08.00-am-1.00pm</t>
+  </si>
+  <si>
+    <t>Spinelli Coffee Company</t>
+  </si>
+  <si>
+    <t>Engineering Block EA</t>
+  </si>
+  <si>
+    <t>363,11 stalls</t>
+  </si>
+  <si>
+    <t>Mon-Fri, 8.00am-8.00pm Sat, 8.00am-3.00pm</t>
+  </si>
+  <si>
+    <t>Yusof Ishak House Level 2</t>
+  </si>
+  <si>
+    <t>Subway</t>
+  </si>
+  <si>
+    <t>Mon-Sun, 10.00am-10.00pm</t>
+  </si>
+  <si>
+    <t>Old Chang Kee</t>
+  </si>
+  <si>
+    <t>Mon-Fri, 7.30am-9.00pm Sat, 7.30am-4.00pm</t>
+  </si>
+  <si>
+    <t>Subway Mobile Cart</t>
+  </si>
+  <si>
+    <t>Engineering Block E4</t>
+  </si>
+  <si>
+    <t>Mon-Fri, 11.00am-6.00pm</t>
+  </si>
+  <si>
+    <t>The Tea Party</t>
+  </si>
+  <si>
+    <t>University Sports Centre</t>
+  </si>
+  <si>
+    <t>Mon-Sat, 10.30am-10.30pm</t>
+  </si>
+  <si>
+    <t>Goh Bros</t>
+  </si>
+  <si>
+    <t>Engineering Block E3</t>
+  </si>
+  <si>
+    <t>Atempo</t>
+  </si>
+  <si>
+    <t>Yong Siew Toh Conservatory of Music (YSTCM)</t>
+  </si>
+  <si>
+    <t>Mon-Fri, 8.30am-5.00pm</t>
+  </si>
+  <si>
+    <t>D’Arts @ UCC</t>
+  </si>
+  <si>
+    <t>University Cultural Centre</t>
+  </si>
+  <si>
+    <t>Mon-Fri and event days, 8.30am-5.00pm</t>
+  </si>
+  <si>
+    <t>Bar Bar Black Sheep</t>
+  </si>
+  <si>
+    <t>Alice Lee Plaza</t>
+  </si>
+  <si>
+    <t>Mon-Sun, 12.00pm-12.00am</t>
+  </si>
+  <si>
+    <t>Museum</t>
+  </si>
+  <si>
+    <t>University Town/Yale NUS</t>
+  </si>
+  <si>
+    <t>Stephen Riady Centre</t>
+  </si>
+  <si>
+    <t>Flavours@Utown</t>
+  </si>
+  <si>
+    <t>Waa Cow</t>
+  </si>
+  <si>
+    <t>Super Snacks</t>
+  </si>
+  <si>
+    <t>Octobox</t>
+  </si>
+  <si>
+    <t>Fairprice Xpress</t>
+  </si>
+  <si>
+    <t>Town Plaza</t>
+  </si>
+  <si>
+    <t>Fine Food</t>
+  </si>
+  <si>
+    <t>The Royals Bistro</t>
+  </si>
+  <si>
+    <t>Sapore Italiano</t>
+  </si>
+  <si>
+    <t>Hwang's</t>
+  </si>
+  <si>
+    <t>Udon Food Bar</t>
+  </si>
+  <si>
+    <t>Education Resource Centre</t>
+  </si>
+  <si>
+    <t>Mon-Sat, 11.00am-10.00pm</t>
+  </si>
+  <si>
+    <t>Daily, 11.00am-2.00am</t>
+  </si>
+  <si>
+    <t>2359 Li Ji Coffeehouse</t>
+  </si>
+  <si>
+    <t>Mon-Fri, 11.00am-1.00am Sat/Sun/PH, 11.00am-10.00pm</t>
+  </si>
+  <si>
+    <t>Agora Cafe</t>
+  </si>
+  <si>
+    <t>Yale-NUS East Core</t>
+  </si>
+  <si>
+    <t>Mon-Sun, 8.30am-9.00pm</t>
+  </si>
+  <si>
+    <t>700,10 stalls</t>
+  </si>
+  <si>
+    <t>Mon-Sun: 24 hours</t>
+  </si>
+  <si>
+    <t>410,14 stalls</t>
+  </si>
+  <si>
+    <t>Mon-Sun, 7.00am-10.00pm</t>
+  </si>
+  <si>
+    <t>Mon-Thu, 11.30am-7.30pm Fri, 11.30am-9.30pm Sat, 12.00pm-3.00pm</t>
+  </si>
+  <si>
+    <t>6659 6081</t>
+  </si>
+  <si>
+    <t>Mon-Sun, 11.00am-10.00pm</t>
+  </si>
+  <si>
+    <t>6262 0287</t>
+  </si>
+  <si>
+    <t>Mon-Sat, 10.00am-10.00pm</t>
+  </si>
+  <si>
+    <t>9833 0603</t>
+  </si>
+  <si>
+    <t>73, Halal Certified</t>
+  </si>
+  <si>
+    <t>Mon-Sat, 10.00am-10.00pm Sun, 10.00am-9.00pm</t>
+  </si>
+  <si>
+    <t>60, Halal Certified</t>
+  </si>
+  <si>
+    <t>Mon-Sat, 11.00am-8.30pm</t>
+  </si>
+  <si>
+    <t>Flavours Nasi Padang is halal</t>
+  </si>
+  <si>
+    <t>BTC Block B</t>
+  </si>
+  <si>
+    <t>The Summit</t>
+  </si>
+  <si>
+    <t>33,7 stalls, halal</t>
+  </si>
+  <si>
+    <t>Mon-Fri, 7.00am-8.00pm Sat, 7.00am-4.00pm</t>
+  </si>
+  <si>
+    <t>The Thinking Corner @ BTC Li Ka Shing Building</t>
+  </si>
+  <si>
+    <t>Reedz Cafe</t>
+  </si>
+  <si>
+    <t>Mon-Fri, 8.00am-7.00pm</t>
+  </si>
+  <si>
+    <t>6463 0272</t>
+  </si>
+  <si>
+    <t>Bukit Timah Campus</t>
   </si>
 </sst>
 </file>
@@ -358,39 +601,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,464 +941,1092 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E814803-94C4-4C5D-B9B4-8FF2D80531F7}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="33.88671875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="33.88671875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1">
+        <v>73</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1">
+        <v>80</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1">
+        <v>308</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1">
+        <v>100</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="4">
+        <v>268</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="1">
+        <v>36</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="D26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="4">
+        <v>70</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="D35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="D36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="D37" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" s="1">
+        <v>122</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="1">
+        <v>114</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="1">
+        <v>330</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="B65" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67" s="1">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="L6" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="L7" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="2">
-        <v>73</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2">
-        <v>80</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="2">
-        <v>308</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="2">
-        <v>100</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="1">
-        <v>268</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="2">
-        <v>36</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
-      <c r="C23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="5"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="1">
-        <v>70</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>88</v>
+      <c r="F67" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B16:B31"/>
+  <mergeCells count="25">
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="C50:C55"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="B50:B64"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B33:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="B17:B32"/>
     <mergeCell ref="F5:F8"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B16"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="C18:C20"/>
     <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="E5:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
